--- a/subscribers.xlsx
+++ b/subscribers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>2025-01-11 20:13:01</t>
+  </si>
+  <si>
+    <t>jonhnstore@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-01-13 10:45:53</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,6 +396,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subscribers.xlsx
+++ b/subscribers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>2025-01-13 10:45:53</t>
+  </si>
+  <si>
+    <t>texter@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-01-14 14:52:16</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,6 +410,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subscribers.xlsx
+++ b/subscribers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>2025-01-14 14:52:16</t>
+  </si>
+  <si>
+    <t>levisble@od.com</t>
+  </si>
+  <si>
+    <t>2025-01-16 16:36:32</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,6 +424,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
